--- a/src/main/resources/static/测试周报模板.xlsx
+++ b/src/main/resources/static/测试周报模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>测试文档</t>
   </si>
@@ -38,7 +38,7 @@
     <t>测试组织单位:CUIT 报表生成人：{{username}}</t>
   </si>
   <si>
-    <t>报告时间：{{opentime}}——{{endtime}}</t>
+    <t>报告时间：{{opentime}}~{{endtime}}</t>
   </si>
   <si>
     <t>CUIT-张远镇制作</t>
@@ -203,7 +203,7 @@
     <t>n:t.mrzxs}}</t>
   </si>
   <si>
-    <t>{{projectname}}-缺陷跟踪</t>
+    <t>{{projectname}}-缺陷跟踪情况</t>
   </si>
   <si>
     <t>一、缺陷总体情况</t>
@@ -263,6 +263,9 @@
     <t>n:t.wjjnumber}}</t>
   </si>
   <si>
+    <t>{{projectname}}-未解决缺陷分布</t>
+  </si>
+  <si>
     <t>一、未解决缺陷分布情况</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>n:t.ybnumber}}</t>
+  </si>
+  <si>
+    <t>{{projectname}}-每日缺陷动态情况</t>
   </si>
   <si>
     <t>一、每日缺陷动态情况</t>
@@ -316,11 +322,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -461,14 +467,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,42 +490,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +527,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -548,10 +536,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,11 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -585,17 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,7 +602,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,31 +704,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,31 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,13 +794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +812,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,67 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,13 +1198,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,6 +1218,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,32 +1252,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,24 +1287,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,151 +1303,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -8655,7 +8661,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="752475" y="1485900"/>
-        <a:ext cx="7181850" cy="2904490"/>
+        <a:ext cx="6905625" cy="2904490"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8685,7 +8691,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="762000" y="5105400"/>
-        <a:ext cx="7180580" cy="2581910"/>
+        <a:ext cx="6904355" cy="2581910"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9703,7 +9709,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -9881,8 +9887,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -9993,7 +9999,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A6:E6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -10103,16 +10109,16 @@
   <sheetPr/>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D49" sqref="A49:D49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="36.125" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10227,7 +10233,7 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -10445,7 +10451,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -10457,7 +10463,7 @@
   <sheetData>
     <row r="1" ht="35.25" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10470,7 +10476,7 @@
     </row>
     <row r="2" ht="20.25" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10499,7 +10505,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -10518,7 +10524,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>75</v>
@@ -10527,7 +10533,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -10553,7 +10559,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E56" sqref="A56:E56"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10566,7 +10572,7 @@
   <sheetData>
     <row r="1" ht="35.25" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10579,7 +10585,7 @@
     </row>
     <row r="2" ht="20.25" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -10605,7 +10611,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -10618,7 +10624,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -10631,7 +10637,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:5">
       <c r="A54" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -10643,33 +10649,33 @@
         <v>52</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:1">

--- a/src/main/resources/static/测试周报模板.xlsx
+++ b/src/main/resources/static/测试周报模板.xlsx
@@ -322,11 +322,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -480,6 +480,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -520,52 +554,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -581,20 +569,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,7 +593,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,13 +704,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,25 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +806,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,49 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,37 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,6 +1198,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1217,7 +1235,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1270,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1266,35 +1295,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1303,10 +1303,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,139 +1315,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -9289,7 +9289,7 @@
   <dimension ref="E7:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:Q28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9709,7 +9709,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -9888,7 +9888,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -9999,7 +9999,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -10109,8 +10109,8 @@
   <sheetPr/>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -10233,8 +10233,8 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10451,7 +10451,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -10559,7 +10559,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/static/测试周报模板.xlsx
+++ b/src/main/resources/static/测试周报模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17239\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD29844C-DE59-4185-8102-D111B5FE0457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>测试文档</t>
   </si>
@@ -107,7 +113,7 @@
     <t>截止目前已解决缺陷数</t>
   </si>
   <si>
-    <t>执行进度</t>
+    <t>案例执行进度</t>
   </si>
   <si>
     <t>{{$fe:overalllistMap t.moudlename</t>
@@ -245,7 +251,7 @@
     <t>{{$fe:bugfollowlistMap t.moudlename</t>
   </si>
   <si>
-    <t>n:t.yjjnumber</t>
+    <t>n:t.solvednumber</t>
   </si>
   <si>
     <t>n:t.zmnumber</t>
@@ -255,6 +261,9 @@
   </si>
   <si>
     <t>n:t.ybnumber</t>
+  </si>
+  <si>
+    <t>n:t.yjjnumber</t>
   </si>
   <si>
     <t>n:t.jjznumber</t>
@@ -314,21 +323,18 @@
     <t>n:t.ljzqx</t>
   </si>
   <si>
-    <t>n:t.ljzqx}}</t>
+    <t>n:t.ljyjj}}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,7 +361,7 @@
       <sz val="12"/>
       <color theme="4"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,46 +472,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,108 +485,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,26 +501,26 @@
     <fill>
       <gradientFill degree="90">
         <stop position="0">
-          <color theme="4" tint="0.80001220740379"/>
+          <color theme="4" tint="0.79998168889431442"/>
         </stop>
         <stop position="0.5">
           <color theme="0"/>
         </stop>
         <stop position="1">
-          <color theme="4" tint="0.80001220740379"/>
+          <color theme="4" tint="0.79998168889431442"/>
         </stop>
       </gradientFill>
     </fill>
     <fill>
       <gradientFill degree="90">
         <stop position="0">
-          <color theme="0" tint="-0.250984221930601"/>
+          <color theme="0" tint="-0.25098422193060094"/>
         </stop>
         <stop position="0.5">
           <color theme="0"/>
         </stop>
         <stop position="1">
-          <color theme="0" tint="-0.250984221930601"/>
+          <color theme="0" tint="-0.25098422193060094"/>
         </stop>
       </gradientFill>
     </fill>
@@ -656,37 +532,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,186 +574,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1197,283 +899,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,25 +937,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1533,10 +955,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,13 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1566,7 +977,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1584,88 +995,13 @@
     <xf numFmtId="10" fontId="7" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,92 +1025,180 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
+    <cellStyle name="??" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="??" xfId="50"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1812,7 +1236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1821,6 +1244,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1879,6 +1322,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1891,7 +1335,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1913,7 +1356,7 @@
             <c:strRef>
               <c:f>案例执行情况!$A$49:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                 </c:pt>
@@ -1933,6 +1376,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8ED7-48FD-B4E8-93B5C6BF9A17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1961,7 +1409,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1986,6 +1433,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1998,21 +1446,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2020,7 +1454,7 @@
             <c:strRef>
               <c:f>案例执行情况!$A$49:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                 </c:pt>
@@ -2040,6 +1474,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8ED7-48FD-B4E8-93B5C6BF9A17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2064,7 +1503,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:dropLines>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="645735122"/>
         <c:axId val="368116124"/>
@@ -2128,6 +1566,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -2139,8 +1578,7 @@
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -2162,16 +1600,13 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$A$49:$A$55</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                       </c:pt>
@@ -2188,15 +1623,20 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="General">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8ED7-48FD-B4E8-93B5C6BF9A17}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -2205,8 +1645,8 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$D$48</c15:sqref>
                         </c15:formulaRef>
@@ -2233,7 +1673,6 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -2258,6 +1697,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="r"/>
@@ -2268,40 +1708,23 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$A$49:$A$55</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                       </c:pt>
@@ -2310,8 +1733,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$D$49:$D$55</c15:sqref>
                         </c15:formulaRef>
@@ -2327,18 +1750,24 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8ED7-48FD-B4E8-93B5C6BF9A17}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="645735122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2372,6 +1801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="368116124"/>
@@ -2379,8 +1809,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="368116124"/>
         <c:scaling>
@@ -2416,6 +1846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="645735122"/>
@@ -2444,7 +1875,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2470,6 +1900,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2499,16 +1930,19 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2522,7 +1956,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2548,6 +1981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2583,7 +2017,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2608,6 +2041,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2620,22 +2054,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -2643,7 +2062,7 @@
             <c:strRef>
               <c:f>案例执行情况!$A$49:$A$55</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                 </c:pt>
@@ -2662,6 +2081,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8716-4804-BBA6-F7DC69A8DC43}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2733,6 +2157,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="inEnd"/>
@@ -2744,8 +2169,7 @@
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -2768,16 +2192,13 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$A$49:$A$55</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                       </c:pt>
@@ -2794,14 +2215,19 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="General">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8716-4804-BBA6-F7DC69A8DC43}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -2810,8 +2236,8 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$B$48</c15:sqref>
                         </c15:formulaRef>
@@ -2836,7 +2262,6 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -2861,6 +2286,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="outEnd"/>
@@ -2871,41 +2297,23 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$A$49:$A$55</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                       </c:pt>
@@ -2914,8 +2322,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$B$49:$B$55</c15:sqref>
                         </c15:formulaRef>
@@ -2930,6 +2338,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8716-4804-BBA6-F7DC69A8DC43}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -2938,8 +2351,8 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$C$48</c15:sqref>
                         </c15:formulaRef>
@@ -2964,7 +2377,6 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -2989,6 +2401,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="outEnd"/>
@@ -2999,41 +2412,23 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$A$49:$A$55</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:caselistsupplementMap t.day</c:v>
                       </c:pt>
@@ -3042,8 +2437,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>案例执行情况!$C$49:$C$55</c15:sqref>
                         </c15:formulaRef>
@@ -3058,18 +2453,24 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8716-4804-BBA6-F7DC69A8DC43}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="691975994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3103,6 +2504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="24465253"/>
@@ -3110,8 +2512,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="24465253"/>
         <c:scaling>
@@ -3161,6 +2563,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="691975994"/>
@@ -3177,7 +2580,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3203,6 +2605,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3232,16 +2635,19 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3279,7 +2685,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3288,6 +2693,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3303,9 +2728,12 @@
             <c:strRef>
               <c:f>未解决缺陷分布!$B$4:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>本周未解决缺陷分布情况 致命</c:v>
+                  <c:v>本周未解决缺陷分布情况</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>致命</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3321,7 +2749,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3346,6 +2773,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3358,22 +2786,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3381,7 +2794,7 @@
             <c:strRef>
               <c:f>未解决缺陷分布!$A$6:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:nosolvedbugseveritylistMap t.moudlename</c:v>
                 </c:pt>
@@ -3400,6 +2813,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6037-4D9B-B245-7FF1735D28FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3408,9 +2826,12 @@
             <c:strRef>
               <c:f>未解决缺陷分布!$C$4:$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>本周未解决缺陷分布情况 严重</c:v>
+                  <c:v>本周未解决缺陷分布情况</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>严重</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3426,7 +2847,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3451,6 +2871,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3463,22 +2884,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3486,7 +2892,7 @@
             <c:strRef>
               <c:f>未解决缺陷分布!$A$6:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:nosolvedbugseveritylistMap t.moudlename</c:v>
                 </c:pt>
@@ -3505,6 +2911,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6037-4D9B-B245-7FF1735D28FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3513,9 +2924,12 @@
             <c:strRef>
               <c:f>未解决缺陷分布!$D$4:$D$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>本周未解决缺陷分布情况 一般</c:v>
+                  <c:v>本周未解决缺陷分布情况</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>一般</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3531,7 +2945,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3556,6 +2969,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3568,22 +2982,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3591,7 +2990,7 @@
             <c:strRef>
               <c:f>未解决缺陷分布!$A$6:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:nosolvedbugseveritylistMap t.moudlename</c:v>
                 </c:pt>
@@ -3610,6 +3009,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6037-4D9B-B245-7FF1735D28FD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3639,7 +3043,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="1"/>
+                      <c:ptCount val="2"/>
                       <c:pt idx="0">
                         <c:v>模块名称</c:v>
                       </c:pt>
@@ -3657,7 +3061,6 @@
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -3682,6 +3085,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="outEnd"/>
@@ -3693,23 +3097,8 @@
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
@@ -3717,16 +3106,13 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>未解决缺陷分布!$A$6:$A$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:nosolvedbugseveritylistMap t.moudlename</c:v>
                       </c:pt>
@@ -3751,6 +3137,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6037-4D9B-B245-7FF1735D28FD}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -3763,6 +3154,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3796,6 +3188,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="496728871"/>
@@ -3854,6 +3247,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="182196765"/>
@@ -3870,7 +3264,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3896,6 +3289,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3925,16 +3319,19 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3964,22 +3361,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
+              <a:rPr lang="zh-CN" altLang="en-US" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>每日新增及解决缺陷趋势图</a:t>
             </a:r>
-            <a:endParaRPr b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3988,6 +3379,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4035,7 +3443,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4060,6 +3467,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4072,21 +3480,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -4094,7 +3488,7 @@
             <c:strRef>
               <c:f>每日缺陷动态情况!$A$56:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                 </c:pt>
@@ -4114,6 +3508,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E74-42D3-9EF1-2851FD825753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4155,7 +3554,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4180,6 +3578,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -4192,21 +3591,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -4214,7 +3599,7 @@
             <c:strRef>
               <c:f>每日缺陷动态情况!$A$56:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                 </c:pt>
@@ -4234,6 +3619,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E74-42D3-9EF1-2851FD825753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4311,7 +3701,6 @@
                   </c:spPr>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -4336,6 +3725,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="r"/>
@@ -4347,22 +3737,8 @@
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
@@ -4370,16 +3746,13 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$A$56:$A$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                       </c:pt>
@@ -4396,15 +3769,20 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="General">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6E74-42D3-9EF1-2851FD825753}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -4413,8 +3791,8 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$D$55</c15:sqref>
                         </c15:formulaRef>
@@ -4460,7 +3838,6 @@
                   </c:spPr>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -4485,6 +3862,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="r"/>
@@ -4495,40 +3873,23 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$A$56:$A$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                       </c:pt>
@@ -4537,8 +3898,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$D$56:$D$62</c15:sqref>
                         </c15:formulaRef>
@@ -4554,6 +3915,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6E74-42D3-9EF1-2851FD825753}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -4562,8 +3928,8 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$E$55</c15:sqref>
                         </c15:formulaRef>
@@ -4609,7 +3975,6 @@
                   </c:spPr>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -4634,6 +3999,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="r"/>
@@ -4644,40 +4010,23 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525">
-                            <a:solidFill>
-                              <a:schemeClr val="dk1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$A$56:$A$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                       </c:pt>
@@ -4686,8 +4035,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$E$56:$E$62</c15:sqref>
                         </c15:formulaRef>
@@ -4703,18 +4052,24 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-6E74-42D3-9EF1-2851FD825753}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="466808687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4748,6 +4103,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="624689827"/>
@@ -4755,8 +4111,8 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="624689827"/>
         <c:scaling>
@@ -4792,6 +4148,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="466808687"/>
@@ -4820,7 +4177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4846,6 +4202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4875,16 +4232,19 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4914,22 +4274,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="1">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>每日累积提出、解决缺陷趋势图</a:t>
             </a:r>
-            <a:endParaRPr sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4938,6 +4292,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4946,10 +4317,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0365754138066398"/>
-          <c:y val="0.0930653034384208"/>
-          <c:w val="0.951638720441374"/>
-          <c:h val="0.826515900628701"/>
+          <c:x val="3.6575413806639798E-2"/>
+          <c:y val="9.3065303438420802E-2"/>
+          <c:w val="0.95163872044137399"/>
+          <c:h val="0.82651590062870095"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4997,7 +4368,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5022,6 +4392,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5034,7 +4405,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5056,7 +4426,7 @@
             <c:strRef>
               <c:f>每日缺陷动态情况!$A$56:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                 </c:pt>
@@ -5076,6 +4446,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8355-49E8-9282-6DB1E61427A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5119,7 +4494,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5144,6 +4518,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5156,7 +4531,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5178,7 +4552,7 @@
             <c:strRef>
               <c:f>每日缺陷动态情况!$A$56:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                 </c:pt>
@@ -5198,6 +4572,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8355-49E8-9282-6DB1E61427A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5273,7 +4652,6 @@
                   </c:spPr>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -5298,6 +4676,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="t"/>
@@ -5309,8 +4688,7 @@
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -5332,16 +4710,13 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$A$56:$A$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                       </c:pt>
@@ -5358,15 +4733,20 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
-                      <c:pt idx="0">
+                      <c:pt idx="0" formatCode="General">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8355-49E8-9282-6DB1E61427A8}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -5375,8 +4755,8 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$B$55</c15:sqref>
                         </c15:formulaRef>
@@ -5416,7 +4796,6 @@
                   </c:spPr>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -5441,6 +4820,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="t"/>
@@ -5451,9 +4831,8 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -5473,18 +4852,15 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$A$56:$A$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                       </c:pt>
@@ -5493,8 +4869,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$B$56:$B$62</c15:sqref>
                         </c15:formulaRef>
@@ -5510,6 +4886,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8355-49E8-9282-6DB1E61427A8}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -5518,8 +4899,8 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$C$55</c15:sqref>
                         </c15:formulaRef>
@@ -5559,7 +4940,6 @@
                   </c:spPr>
                 </c:marker>
                 <c:dLbls>
-                  <c:numFmt formatCode="General" sourceLinked="1"/>
                   <c:spPr>
                     <a:noFill/>
                     <a:ln>
@@ -5584,6 +4964,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="t"/>
@@ -5594,9 +4975,8 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -5616,18 +4996,15 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref/>
-                        </c15:fullRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$A$56:$A$62</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
                         <c:v>{{$fe:bugfollowlistsupplementlistMap t.day</c:v>
                       </c:pt>
@@ -5636,8 +5013,8 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>每日缺陷动态情况!$C$56:$C$62</c15:sqref>
                         </c15:formulaRef>
@@ -5653,6 +5030,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8355-49E8-9282-6DB1E61427A8}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
@@ -5679,7 +5061,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5713,6 +5095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="390936448"/>
@@ -5763,6 +5146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="390934912"/>
@@ -5779,7 +5163,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5805,6 +5188,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5834,11 +5218,14 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8640,7 +8027,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -8654,14 +8041,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>75565</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="752475" y="1485900"/>
-        <a:ext cx="6905625" cy="2904490"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8684,14 +8077,20 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="762000" y="5105400"/>
-        <a:ext cx="6904355" cy="2581910"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8705,7 +8104,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -8721,20 +8120,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="10515600"/>
+          <a:off x="1066800" y="10582275"/>
           <a:ext cx="8890" cy="8890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8759,20 +8164,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="11420475"/>
+          <a:off x="1066800" y="11677650"/>
           <a:ext cx="8890" cy="8890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8797,20 +8208,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="14192250"/>
+          <a:off x="1066800" y="14563725"/>
           <a:ext cx="8890" cy="8890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8835,20 +8252,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066800" y="15049500"/>
+          <a:off x="1066800" y="15420975"/>
           <a:ext cx="8890" cy="8890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8862,7 +8285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -8876,14 +8299,20 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4686300" y="1047750"/>
-        <a:ext cx="9542145" cy="2390775"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8897,7 +8326,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -8911,14 +8340,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="171450" y="1552575"/>
-        <a:ext cx="11124565" cy="2989580"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8941,14 +8376,20 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>85090</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152400" y="5362575"/>
-        <a:ext cx="11159490" cy="3152140"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8973,20 +8414,26 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057275" y="9639300"/>
+          <a:off x="1057275" y="9725025"/>
           <a:ext cx="8890" cy="8890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9280,618 +8727,613 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="E7:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E8:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="7" ht="14.25"/>
-    <row r="8" spans="5:17">
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="75"/>
+    <row r="8" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="39"/>
     </row>
-    <row r="9" spans="5:17">
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="76"/>
+    <row r="9" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
-    <row r="10" spans="5:17">
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="76"/>
+    <row r="10" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
     </row>
-    <row r="11" ht="14.25" spans="5:17">
-      <c r="E11" s="57" t="s">
+    <row r="11" spans="5:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="77"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="36"/>
     </row>
-    <row r="12" ht="14.25" spans="5:17">
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="68" t="s">
+    <row r="12" spans="5:17" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="77"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
     </row>
-    <row r="13" spans="5:17">
-      <c r="E13" s="59" t="s">
+    <row r="13" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E13" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="78"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="48"/>
     </row>
-    <row r="14" spans="5:17">
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="78"/>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="48"/>
     </row>
-    <row r="15" spans="5:17">
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="78"/>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="48"/>
     </row>
-    <row r="16" spans="5:17">
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="78"/>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="48"/>
     </row>
-    <row r="17" spans="5:17">
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="78"/>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
     </row>
-    <row r="18" spans="5:17">
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="78"/>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
     </row>
-    <row r="19" spans="5:17">
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="78"/>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
     </row>
-    <row r="20" spans="5:17">
-      <c r="E20" s="59" t="s">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E20" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="78"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
-    <row r="21" spans="5:17">
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="78"/>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="5:17">
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="78"/>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="5:17">
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="78"/>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="48"/>
     </row>
-    <row r="24" spans="5:17">
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="78"/>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="5:17">
-      <c r="E25" s="61" t="s">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E25" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="79"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="5:17">
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="79"/>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="5:17">
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="79"/>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="5:17">
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="79"/>
+    <row r="28" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="5:17">
-      <c r="E29" s="63" t="s">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E29" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="80"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="54"/>
     </row>
-    <row r="30" spans="5:17">
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="80"/>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="54"/>
     </row>
-    <row r="31" spans="5:17">
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="80"/>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="54"/>
     </row>
-    <row r="32" ht="14.25" spans="5:17">
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="81"/>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.15">
+      <c r="E32" s="55"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E13:Q19"/>
+    <mergeCell ref="E20:Q24"/>
+    <mergeCell ref="E25:Q28"/>
+    <mergeCell ref="E29:Q32"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="E8:Q10"/>
     <mergeCell ref="E11:G12"/>
     <mergeCell ref="H11:L12"/>
-    <mergeCell ref="E13:Q19"/>
-    <mergeCell ref="E20:Q24"/>
-    <mergeCell ref="E25:Q28"/>
-    <mergeCell ref="E29:Q32"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:9">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
-    <row r="2" ht="20.25" spans="1:9">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="20.25" spans="1:9">
-      <c r="A3" s="45">
+    <row r="3" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="20.25" spans="1:9">
-      <c r="A4" s="45">
+    <row r="4" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="20.25" spans="1:9">
-      <c r="A5" s="45">
+    <row r="5" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="20.25" spans="1:9">
-      <c r="A6" s="45">
+    <row r="6" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="20.25" spans="1:9">
-      <c r="A7" s="45">
+    <row r="7" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="20.25" spans="1:9">
-      <c r="A8" s="45">
+    <row r="8" spans="1:9" ht="21.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="28" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I3" location="项目总体情况!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I4:I5" location="测试总体情况!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I4" location="测试案例情况!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I5" location="案例执行情况!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I6" location="缺陷跟踪情况!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I7:I8" location="测试总体情况!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I7" location="未解决缺陷分布!A1" display="&gt;&gt;&gt;"/>
-    <hyperlink ref="I8" location="每日缺陷动态情况!A1" display="&gt;&gt;&gt;"/>
+    <hyperlink ref="I3" location="项目总体情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I4:I5" location="测试总体情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I4" location="测试案例情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I5" location="案例执行情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I6" location="缺陷跟踪情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I7:I8" location="测试总体情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I7" location="未解决缺陷分布!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I8" location="每日缺陷动态情况!A1" display="&gt;&gt;&gt;" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -9900,82 +9342,82 @@
     <col min="5" max="5" width="16.75" customWidth="1"/>
     <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
-    <row r="3" ht="23" customHeight="1" spans="1:8">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9984,25 +9426,24 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2:H2" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="A2:H2" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -10011,78 +9452,78 @@
     <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="22"/>
     </row>
-    <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="22"/>
     </row>
-    <row r="3" ht="16" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="36"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="22"/>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="37"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="23"/>
     </row>
-    <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12" t="s">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10096,24 +9537,23 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:E3" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="A3:E3" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="25.875" customWidth="1"/>
@@ -10122,122 +9562,121 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
-    <row r="2" ht="20.25" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="16"/>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="16"/>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="31" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="34"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="33"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:E3" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="A3:E3" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="15.875" customWidth="1"/>
@@ -10249,180 +9688,180 @@
     <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
-    <row r="2" ht="20.25" spans="1:9">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="24"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="73"/>
     </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12" t="s">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="12" t="s">
         <v>79</v>
       </c>
+      <c r="I7" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="38" spans="10:12">
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
+    <row r="38" spans="10:12" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
     </row>
-    <row r="59" ht="14.25" spans="10:12">
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
+    <row r="59" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
     </row>
-    <row r="60" ht="14.25" spans="10:12">
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
+    <row r="60" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
     </row>
-    <row r="61" ht="14.25" spans="10:12">
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
+    <row r="61" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
     </row>
-    <row r="62" ht="14.25" spans="10:12">
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
+    <row r="62" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
     </row>
-    <row r="63" ht="14.25" spans="10:12">
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
+    <row r="63" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
     </row>
-    <row r="64" ht="14.25" spans="10:12">
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
+    <row r="64" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
     </row>
-    <row r="65" ht="14.25" spans="10:12">
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
+    <row r="65" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
     </row>
-    <row r="66" ht="14.25" spans="10:12">
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
+    <row r="66" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
     </row>
-    <row r="67" ht="14.25" spans="10:12">
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
+    <row r="67" spans="10:12" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10436,104 +9875,103 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:I3" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="A3:I3" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
-    <row r="2" ht="20.25" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="81"/>
+      <c r="B5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>84</v>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -10544,25 +9982,24 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:I3" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="A3:I3" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -10570,131 +10007,131 @@
     <col min="4" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
-    <row r="2" ht="20.25" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A28" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
     </row>
-    <row r="54" ht="14.25" spans="1:5">
-      <c r="A54" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="82"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="E55" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="10" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="D56" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="E56" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="11"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A54:E54"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A54:E54"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:I3" location="目录!A1" display="返回目录"/>
+    <hyperlink ref="A3:I3" location="目录!A1" display="返回目录" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>